--- a/文档备份/数据字典模板/3.DIM - 数据字典.xlsx
+++ b/文档备份/数据字典模板/3.DIM - 数据字典.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\数据字典模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD2D1D6-9AFA-4194-8152-E942FF7167FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44D7BF54-35A9-4841-A5F2-0C2B86754FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="536" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -195,9 +195,6 @@
     <t>表空间</t>
   </si>
   <si>
-    <t>索引</t>
-  </si>
-  <si>
     <t>描述</t>
   </si>
   <si>
@@ -633,6 +630,9 @@
   <si>
     <t>3004</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>分区键</t>
   </si>
 </sst>
 </file>
@@ -1391,7 +1391,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E77" sqref="E77"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1448,7 +1448,7 @@
     </row>
     <row r="2" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>12</v>
@@ -1457,13 +1457,13 @@
         <v>13</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E2" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="17" t="s">
         <v>49</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>50</v>
       </c>
       <c r="G2" s="11" t="s">
         <v>14</v>
@@ -1489,12 +1489,12 @@
     )</v>
       </c>
       <c r="L2" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>12</v>
@@ -1503,13 +1503,13 @@
         <v>13</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G3" s="11" t="s">
         <v>14</v>
@@ -1535,12 +1535,12 @@
     )</v>
       </c>
       <c r="L3" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>12</v>
@@ -1549,13 +1549,13 @@
         <v>13</v>
       </c>
       <c r="D4" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>48</v>
-      </c>
       <c r="F4" s="17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G4" s="11" t="s">
         <v>14</v>
@@ -1581,12 +1581,12 @@
     )</v>
       </c>
       <c r="L4" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B5" s="11" t="s">
         <v>12</v>
@@ -1595,7 +1595,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
@@ -1617,12 +1617,12 @@
     )</v>
       </c>
       <c r="L5" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>12</v>
@@ -1631,7 +1631,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6" s="16"/>
       <c r="F6" s="17"/>
@@ -1653,12 +1653,12 @@
     )</v>
       </c>
       <c r="L6" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>12</v>
@@ -1667,7 +1667,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" s="16"/>
       <c r="F7" s="17"/>
@@ -1689,12 +1689,12 @@
     )</v>
       </c>
       <c r="L7" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>12</v>
@@ -1703,7 +1703,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" s="16"/>
       <c r="F8" s="17"/>
@@ -1725,12 +1725,12 @@
     )</v>
       </c>
       <c r="L8" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9" s="11" t="s">
         <v>12</v>
@@ -1739,7 +1739,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="12"/>
@@ -1766,7 +1766,7 @@
     </row>
     <row r="10" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>12</v>
@@ -1775,7 +1775,7 @@
         <v>13</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" s="17"/>
       <c r="F10" s="12"/>
@@ -1802,7 +1802,7 @@
     </row>
     <row r="11" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>12</v>
@@ -1811,7 +1811,7 @@
         <v>13</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E11" s="17"/>
       <c r="F11" s="12"/>
@@ -1838,7 +1838,7 @@
     </row>
     <row r="12" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B12" s="11" t="s">
         <v>12</v>
@@ -1847,7 +1847,7 @@
         <v>13</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="12"/>
@@ -1874,7 +1874,7 @@
     </row>
     <row r="13" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>12</v>
@@ -1883,7 +1883,7 @@
         <v>13</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E13" s="17"/>
       <c r="F13" s="12"/>
@@ -1910,7 +1910,7 @@
     </row>
     <row r="14" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B14" s="11" t="s">
         <v>12</v>
@@ -1919,7 +1919,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
@@ -1946,7 +1946,7 @@
     </row>
     <row r="15" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B15" s="11" t="s">
         <v>12</v>
@@ -1955,7 +1955,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="12"/>
@@ -1982,7 +1982,7 @@
     </row>
     <row r="16" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>12</v>
@@ -1991,7 +1991,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E16" s="16"/>
       <c r="F16" s="12"/>
@@ -2018,7 +2018,7 @@
     </row>
     <row r="17" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>12</v>
@@ -2027,7 +2027,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E17" s="16"/>
       <c r="F17" s="12"/>
@@ -2054,7 +2054,7 @@
     </row>
     <row r="18" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>12</v>
@@ -2063,7 +2063,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E18" s="16"/>
       <c r="F18" s="12"/>
@@ -2090,7 +2090,7 @@
     </row>
     <row r="19" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>12</v>
@@ -2099,7 +2099,7 @@
         <v>13</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E19" s="16"/>
       <c r="F19" s="12"/>
@@ -2126,7 +2126,7 @@
     </row>
     <row r="20" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>12</v>
@@ -2135,7 +2135,7 @@
         <v>13</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E20" s="17"/>
       <c r="F20" s="12"/>
@@ -2162,7 +2162,7 @@
     </row>
     <row r="21" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>12</v>
@@ -2171,7 +2171,7 @@
         <v>13</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E21" s="17"/>
       <c r="F21" s="12"/>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="22" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>12</v>
@@ -2207,7 +2207,7 @@
         <v>13</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E22" s="17"/>
       <c r="F22" s="12"/>
@@ -2234,7 +2234,7 @@
     </row>
     <row r="23" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>12</v>
@@ -2243,7 +2243,7 @@
         <v>13</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E23" s="17"/>
       <c r="F23" s="12"/>
@@ -2270,7 +2270,7 @@
     </row>
     <row r="24" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>12</v>
@@ -2279,7 +2279,7 @@
         <v>13</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
@@ -2306,7 +2306,7 @@
     </row>
     <row r="25" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>12</v>
@@ -2315,7 +2315,7 @@
         <v>13</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
@@ -2342,7 +2342,7 @@
     </row>
     <row r="26" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>12</v>
@@ -2351,7 +2351,7 @@
         <v>13</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
@@ -2378,7 +2378,7 @@
     </row>
     <row r="27" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>12</v>
@@ -2387,7 +2387,7 @@
         <v>13</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
@@ -2414,7 +2414,7 @@
     </row>
     <row r="28" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>12</v>
@@ -2423,7 +2423,7 @@
         <v>13</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
@@ -2450,7 +2450,7 @@
     </row>
     <row r="29" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="23" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>12</v>
@@ -2459,7 +2459,7 @@
         <v>13</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
@@ -2486,7 +2486,7 @@
     </row>
     <row r="30" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>12</v>
@@ -2495,7 +2495,7 @@
         <v>13</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
@@ -2522,7 +2522,7 @@
     </row>
     <row r="31" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>12</v>
@@ -2531,7 +2531,7 @@
         <v>13</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
@@ -2558,7 +2558,7 @@
     </row>
     <row r="32" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>12</v>
@@ -2567,7 +2567,7 @@
         <v>13</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
@@ -2594,7 +2594,7 @@
     </row>
     <row r="33" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>12</v>
@@ -2603,7 +2603,7 @@
         <v>13</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
@@ -2630,7 +2630,7 @@
     </row>
     <row r="34" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>12</v>
@@ -2639,7 +2639,7 @@
         <v>13</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
@@ -2666,7 +2666,7 @@
     </row>
     <row r="35" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>12</v>
@@ -2675,7 +2675,7 @@
         <v>13</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
@@ -2702,7 +2702,7 @@
     </row>
     <row r="36" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>12</v>
@@ -2711,7 +2711,7 @@
         <v>13</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
@@ -2738,7 +2738,7 @@
     </row>
     <row r="37" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>12</v>
@@ -2747,7 +2747,7 @@
         <v>13</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
@@ -2774,7 +2774,7 @@
     </row>
     <row r="38" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>12</v>
@@ -2783,7 +2783,7 @@
         <v>13</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
@@ -2810,7 +2810,7 @@
     </row>
     <row r="39" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>12</v>
@@ -2819,7 +2819,7 @@
         <v>13</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
@@ -2846,7 +2846,7 @@
     </row>
     <row r="40" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>12</v>
@@ -2855,7 +2855,7 @@
         <v>13</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
@@ -2882,7 +2882,7 @@
     </row>
     <row r="41" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>12</v>
@@ -2891,7 +2891,7 @@
         <v>13</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
@@ -2918,7 +2918,7 @@
     </row>
     <row r="42" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>12</v>
@@ -2927,7 +2927,7 @@
         <v>13</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E42" s="12"/>
       <c r="F42" s="12"/>
@@ -2954,7 +2954,7 @@
     </row>
     <row r="43" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>12</v>
@@ -2963,7 +2963,7 @@
         <v>13</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
@@ -2990,7 +2990,7 @@
     </row>
     <row r="44" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>12</v>
@@ -2999,7 +2999,7 @@
         <v>13</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
@@ -3026,7 +3026,7 @@
     </row>
     <row r="45" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B45" s="11" t="s">
         <v>12</v>
@@ -3035,7 +3035,7 @@
         <v>13</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
@@ -3062,7 +3062,7 @@
     </row>
     <row r="46" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B46" s="11" t="s">
         <v>12</v>
@@ -3071,7 +3071,7 @@
         <v>13</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
@@ -3098,7 +3098,7 @@
     </row>
     <row r="47" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B47" s="11" t="s">
         <v>12</v>
@@ -3107,7 +3107,7 @@
         <v>13</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
@@ -3134,7 +3134,7 @@
     </row>
     <row r="48" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B48" s="11" t="s">
         <v>12</v>
@@ -3143,7 +3143,7 @@
         <v>13</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
@@ -3170,7 +3170,7 @@
     </row>
     <row r="49" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B49" s="11" t="s">
         <v>12</v>
@@ -3179,7 +3179,7 @@
         <v>13</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
@@ -3206,7 +3206,7 @@
     </row>
     <row r="50" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="23" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B50" s="11" t="s">
         <v>12</v>
@@ -3215,7 +3215,7 @@
         <v>13</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E50" s="12"/>
       <c r="F50" s="12"/>
@@ -3242,7 +3242,7 @@
     </row>
     <row r="51" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="23" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>12</v>
@@ -3251,7 +3251,7 @@
         <v>13</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E51" s="12"/>
       <c r="F51" s="12"/>
@@ -3278,7 +3278,7 @@
     </row>
     <row r="52" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B52" s="11" t="s">
         <v>12</v>
@@ -3287,7 +3287,7 @@
         <v>13</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E52" s="12"/>
       <c r="F52" s="12"/>
@@ -3314,7 +3314,7 @@
     </row>
     <row r="53" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B53" s="11" t="s">
         <v>12</v>
@@ -3323,7 +3323,7 @@
         <v>13</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E53" s="12"/>
       <c r="F53" s="12"/>
@@ -3350,7 +3350,7 @@
     </row>
     <row r="54" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="23" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B54" s="11" t="s">
         <v>12</v>
@@ -3359,7 +3359,7 @@
         <v>13</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E54" s="12"/>
       <c r="F54" s="12"/>
@@ -3386,7 +3386,7 @@
     </row>
     <row r="55" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B55" s="11" t="s">
         <v>12</v>
@@ -3395,7 +3395,7 @@
         <v>13</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E55" s="12"/>
       <c r="F55" s="12"/>
@@ -3422,7 +3422,7 @@
     </row>
     <row r="56" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B56" s="11" t="s">
         <v>12</v>
@@ -3431,7 +3431,7 @@
         <v>13</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E56" s="12"/>
       <c r="F56" s="12"/>
@@ -3458,7 +3458,7 @@
     </row>
     <row r="57" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="23" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B57" s="11" t="s">
         <v>12</v>
@@ -3467,7 +3467,7 @@
         <v>13</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E57" s="12"/>
       <c r="F57" s="12"/>
@@ -3494,7 +3494,7 @@
     </row>
     <row r="58" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B58" s="11" t="s">
         <v>12</v>
@@ -3503,7 +3503,7 @@
         <v>13</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E58" s="12"/>
       <c r="F58" s="12"/>
@@ -3530,7 +3530,7 @@
     </row>
     <row r="59" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B59" s="11" t="s">
         <v>12</v>
@@ -3539,7 +3539,7 @@
         <v>13</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E59" s="12"/>
       <c r="F59" s="12"/>
@@ -3566,7 +3566,7 @@
     </row>
     <row r="60" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B60" s="11" t="s">
         <v>12</v>
@@ -3575,7 +3575,7 @@
         <v>13</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E60" s="12"/>
       <c r="F60" s="12"/>
@@ -3602,7 +3602,7 @@
     </row>
     <row r="61" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="23" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B61" s="11" t="s">
         <v>12</v>
@@ -3611,7 +3611,7 @@
         <v>13</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E61" s="12"/>
       <c r="F61" s="12"/>
@@ -3638,7 +3638,7 @@
     </row>
     <row r="62" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="23" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B62" s="11" t="s">
         <v>12</v>
@@ -3647,7 +3647,7 @@
         <v>13</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E62" s="12"/>
       <c r="F62" s="12"/>
@@ -3674,7 +3674,7 @@
     </row>
     <row r="63" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B63" s="11" t="s">
         <v>12</v>
@@ -3683,7 +3683,7 @@
         <v>13</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E63" s="12"/>
       <c r="F63" s="12"/>
@@ -3710,7 +3710,7 @@
     </row>
     <row r="64" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="23" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B64" s="11" t="s">
         <v>12</v>
@@ -3719,7 +3719,7 @@
         <v>13</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E64" s="12"/>
       <c r="F64" s="12"/>
@@ -3746,7 +3746,7 @@
     </row>
     <row r="65" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B65" s="11" t="s">
         <v>12</v>
@@ -3755,7 +3755,7 @@
         <v>13</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E65" s="12"/>
       <c r="F65" s="12"/>
@@ -3782,7 +3782,7 @@
     </row>
     <row r="66" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="23" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B66" s="11" t="s">
         <v>12</v>
@@ -3791,7 +3791,7 @@
         <v>13</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E66" s="12"/>
       <c r="F66" s="12"/>
@@ -3818,7 +3818,7 @@
     </row>
     <row r="67" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B67" s="11" t="s">
         <v>12</v>
@@ -3827,7 +3827,7 @@
         <v>13</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E67" s="12"/>
       <c r="F67" s="12"/>
@@ -3854,7 +3854,7 @@
     </row>
     <row r="68" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B68" s="11" t="s">
         <v>12</v>
@@ -3863,7 +3863,7 @@
         <v>13</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E68" s="12"/>
       <c r="F68" s="12"/>
@@ -3890,7 +3890,7 @@
     </row>
     <row r="69" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="23" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B69" s="11" t="s">
         <v>12</v>
@@ -3899,7 +3899,7 @@
         <v>13</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E69" s="12"/>
       <c r="F69" s="12"/>
@@ -3926,7 +3926,7 @@
     </row>
     <row r="70" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B70" s="11" t="s">
         <v>12</v>
@@ -3935,7 +3935,7 @@
         <v>13</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E70" s="12"/>
       <c r="F70" s="12"/>
@@ -3962,7 +3962,7 @@
     </row>
     <row r="71" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="23" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B71" s="11" t="s">
         <v>12</v>
@@ -3971,7 +3971,7 @@
         <v>13</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E71" s="12"/>
       <c r="F71" s="12"/>
@@ -3998,7 +3998,7 @@
     </row>
     <row r="72" spans="1:12" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B72" s="11" t="s">
         <v>12</v>
@@ -4007,7 +4007,7 @@
         <v>13</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E72" s="12"/>
       <c r="F72" s="12"/>
@@ -4074,7 +4074,7 @@
       <selection activeCell="H1" sqref="H1:H2"/>
       <selection pane="topRight" activeCell="H1" sqref="H1:H2"/>
       <selection pane="bottomLeft" activeCell="H1" sqref="H1:H2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4103,7 +4103,7 @@
       <c r="F1" s="35"/>
       <c r="G1" s="35"/>
       <c r="H1" s="36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4134,14 +4134,14 @@
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="26" t="s">
-        <v>21</v>
+        <v>163</v>
       </c>
       <c r="F3" s="38"/>
       <c r="G3" s="39"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="42"/>
       <c r="C4" s="35"/>
@@ -4161,22 +4161,22 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="C6" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="D6" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="E6" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="F6" s="27" t="s">
         <v>27</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>28</v>
       </c>
       <c r="G6" s="27" t="s">
         <v>11</v>
@@ -4187,22 +4187,22 @@
         <v>1</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="D7" s="20" t="s">
-        <v>149</v>
-      </c>
       <c r="E7" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="20" t="s">
-        <v>32</v>
-      </c>
       <c r="G7" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -4210,19 +4210,19 @@
         <v>2</v>
       </c>
       <c r="B8" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="D8" s="20" t="s">
         <v>151</v>
       </c>
-      <c r="D8" s="20" t="s">
-        <v>152</v>
-      </c>
       <c r="E8" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8" s="20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G8" s="20"/>
     </row>
@@ -4231,22 +4231,22 @@
         <v>3</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="D9" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>154</v>
-      </c>
       <c r="E9" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F9" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="20" t="s">
         <v>32</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -4254,22 +4254,22 @@
         <v>4</v>
       </c>
       <c r="B10" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="D10" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>157</v>
-      </c>
       <c r="E10" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F10" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="20" t="s">
         <v>32</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -4277,22 +4277,22 @@
         <v>5</v>
       </c>
       <c r="B11" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="C11" s="20" t="s">
-        <v>159</v>
-      </c>
       <c r="D11" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F11" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="20" t="s">
         <v>32</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -4300,22 +4300,22 @@
         <v>6</v>
       </c>
       <c r="B12" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12" s="20" t="s">
         <v>160</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="D12" s="20" t="s">
         <v>161</v>
       </c>
-      <c r="D12" s="20" t="s">
-        <v>162</v>
-      </c>
       <c r="E12" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F12" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="20" t="s">
         <v>32</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -4323,19 +4323,19 @@
         <v>7</v>
       </c>
       <c r="B13" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="D13" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="20" t="s">
-        <v>58</v>
-      </c>
       <c r="E13" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="20" t="s">
         <v>34</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>35</v>
       </c>
       <c r="G13" s="20"/>
     </row>
@@ -4344,22 +4344,22 @@
         <v>8</v>
       </c>
       <c r="B14" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="D14" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="E14" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="20" t="s">
         <v>61</v>
-      </c>
-      <c r="E14" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -4367,22 +4367,22 @@
         <v>9</v>
       </c>
       <c r="B15" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="30" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="D15" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="20" t="s">
         <v>64</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -4452,7 +4452,7 @@
       <c r="F1" s="35"/>
       <c r="G1" s="35"/>
       <c r="H1" s="36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4483,14 +4483,14 @@
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="26" t="s">
-        <v>21</v>
+        <v>163</v>
       </c>
       <c r="F3" s="38"/>
       <c r="G3" s="39"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="42"/>
       <c r="C4" s="35"/>
@@ -4510,22 +4510,22 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="C6" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="D6" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="E6" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="F6" s="27" t="s">
         <v>27</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>28</v>
       </c>
       <c r="G6" s="27" t="s">
         <v>11</v>
@@ -4536,22 +4536,22 @@
         <v>1</v>
       </c>
       <c r="B7" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>141</v>
-      </c>
       <c r="D7" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="F7" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="G7" s="20" t="s">
         <v>32</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -4559,22 +4559,22 @@
         <v>2</v>
       </c>
       <c r="B8" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="20" t="s">
         <v>142</v>
       </c>
-      <c r="C8" s="20" t="s">
-        <v>143</v>
-      </c>
       <c r="D8" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E8" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="20" t="s">
-        <v>35</v>
-      </c>
       <c r="G8" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -4582,22 +4582,22 @@
         <v>3</v>
       </c>
       <c r="B9" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="C9" s="20" t="s">
         <v>144</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="D9" s="20" t="s">
         <v>145</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>146</v>
-      </c>
       <c r="E9" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="20" t="s">
-        <v>35</v>
-      </c>
       <c r="G9" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -4605,22 +4605,22 @@
         <v>4</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="20" t="s">
-        <v>35</v>
-      </c>
       <c r="G10" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -4628,19 +4628,19 @@
         <v>5</v>
       </c>
       <c r="B11" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="D11" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="20" t="s">
-        <v>58</v>
-      </c>
       <c r="E11" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="20" t="s">
         <v>34</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>35</v>
       </c>
       <c r="G11" s="20"/>
     </row>
@@ -4649,22 +4649,22 @@
         <v>6</v>
       </c>
       <c r="B12" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="D12" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="E12" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="20" t="s">
         <v>61</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -4672,22 +4672,22 @@
         <v>7</v>
       </c>
       <c r="B13" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="D13" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="20" t="s">
         <v>64</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -4757,7 +4757,7 @@
       <c r="F1" s="35"/>
       <c r="G1" s="35"/>
       <c r="H1" s="36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4788,14 +4788,14 @@
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="26" t="s">
-        <v>21</v>
+        <v>163</v>
       </c>
       <c r="F3" s="38"/>
       <c r="G3" s="39"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="40" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="42"/>
       <c r="C4" s="35"/>
@@ -4815,22 +4815,22 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="C6" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="D6" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="27" t="s">
+      <c r="E6" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="27" t="s">
+      <c r="F6" s="27" t="s">
         <v>27</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>28</v>
       </c>
       <c r="G6" s="27" t="s">
         <v>11</v>
@@ -4841,22 +4841,22 @@
         <v>1</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E7" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="20" t="s">
+      <c r="G7" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -4864,22 +4864,22 @@
         <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -4887,19 +4887,19 @@
         <v>3</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G9" s="2"/>
     </row>
@@ -4908,19 +4908,19 @@
         <v>4</v>
       </c>
       <c r="B10" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="D10" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>58</v>
-      </c>
       <c r="E10" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="20" t="s">
         <v>34</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>35</v>
       </c>
       <c r="G10" s="20"/>
     </row>
@@ -4929,22 +4929,22 @@
         <v>5</v>
       </c>
       <c r="B11" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="D11" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="E11" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="20" t="s">
         <v>61</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -4952,22 +4952,22 @@
         <v>6</v>
       </c>
       <c r="B12" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="D12" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="20" t="s">
         <v>64</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
